--- a/配置文件/2016昆山实践操作赛.xlsx
+++ b/配置文件/2016昆山实践操作赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="4"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="成绩册" sheetId="5" r:id="rId5"/>
     <sheet name="成绩册封面" sheetId="6" r:id="rId6"/>
     <sheet name="备注 " sheetId="7" r:id="rId7"/>
+    <sheet name="裁判用表B1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -240,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>名称</t>
   </si>
@@ -541,7 +542,43 @@
     <t>自定义裁判用表方法：表名如“裁判用表A1”，放在此文件中</t>
   </si>
   <si>
-    <t>自定义成绩册方法：表名如“成绩册表A1”，放在此文件中</t>
+    <t>自定义成绩册方法：表名如“成绩册A1”，放在此文件中</t>
+  </si>
+  <si>
+    <t>第一轮</t>
+  </si>
+  <si>
+    <t>第二轮</t>
+  </si>
+  <si>
+    <t>起飞</t>
+  </si>
+  <si>
+    <t>山洞</t>
+  </si>
+  <si>
+    <t>隧道</t>
+  </si>
+  <si>
+    <t>停机</t>
+  </si>
+  <si>
+    <t>高山</t>
+  </si>
+  <si>
+    <t>着陆</t>
+  </si>
+  <si>
+    <t>扣分</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>用时</t>
+  </si>
+  <si>
+    <t>分  秒</t>
   </si>
 </sst>
 </file>
@@ -549,18 +586,50 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="177" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="179" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -609,18 +678,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -628,8 +685,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -644,92 +701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -749,9 +721,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -764,6 +813,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -771,12 +828,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -810,7 +873,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,13 +1011,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,155 +1053,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1013,76 +1150,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,8 +1177,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,10 +1255,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,226 +1267,283 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1367,16 +1561,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1783,13 +1977,13 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1843,148 +2037,148 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="10.6" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="21" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="10.6" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:3">
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2020,139 +2214,139 @@
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="29" style="21" customWidth="1"/>
+    <col min="6" max="6" width="29" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="6:6">
       <c r="F1"/>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:6">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="30" t="str">
+      <c r="A3" s="49" t="str">
         <f>项目!A3</f>
         <v>“七彩风车小屋”拼装彩绘个人赛</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="49" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="50">
         <v>6</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="30" t="str">
+      <c r="A4" s="49" t="str">
         <f>项目!A4</f>
         <v>“缤纷童年”场景规划制作团体赛</v>
       </c>
-      <c r="B4" s="30" t="str">
+      <c r="B4" s="49" t="str">
         <f>项目!B4</f>
         <v>A2</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="50">
         <v>6</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6">
-      <c r="A5" s="30" t="str">
+      <c r="A5" s="49" t="str">
         <f>项目!A5</f>
         <v>“天戈”遥控直升机障碍赛</v>
       </c>
-      <c r="B5" s="30" t="str">
+      <c r="B5" s="49" t="str">
         <f>项目!B5</f>
         <v>B1</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="50">
         <v>6</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:6">
-      <c r="A6" s="30" t="str">
+      <c r="A6" s="49" t="str">
         <f>项目!A6</f>
         <v>环保时装秀</v>
       </c>
-      <c r="B6" s="30" t="str">
+      <c r="B6" s="49" t="str">
         <f>项目!B6</f>
         <v>C1</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="50">
         <v>6</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:6">
-      <c r="A7" s="30" t="str">
+      <c r="A7" s="49" t="str">
         <f>项目!A7</f>
         <v>环保创意制作</v>
       </c>
-      <c r="B7" s="30" t="str">
+      <c r="B7" s="49" t="str">
         <f>项目!B7</f>
         <v>C2</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="50">
         <v>6</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="40" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2177,11 +2371,11 @@
   <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC3" sqref="AC3:AD7"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2206,705 +2400,704 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1"/>
     <row r="2" ht="24" spans="1:30">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A3" s="5" t="str">
+    <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A3" s="24" t="str">
         <f>项目!A3</f>
         <v>“七彩风车小屋”拼装彩绘个人赛</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="24" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="24">
         <v>30</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="24">
         <v>25</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="45">
         <v>2</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="32">
         <v>25</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="32">
         <v>6</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="32">
         <v>6</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="32">
         <v>8</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="32">
         <v>8</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="32">
         <v>20</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="32">
         <v>20</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="32">
         <v>8</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A4" s="5" t="str">
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+    </row>
+    <row r="4" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A4" s="24" t="str">
         <f>项目!A4</f>
         <v>“缤纷童年”场景规划制作团体赛</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="24" t="str">
         <f>项目!B4</f>
         <v>A2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="24">
         <v>30</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="24">
         <v>25</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="45">
         <v>2</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="32">
         <v>25</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="32">
         <v>6</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="32">
         <v>6</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="32">
         <v>8</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="32">
         <v>8</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="32">
         <v>20</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="32">
         <v>20</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="32">
         <v>8</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A5" s="5" t="str">
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+    </row>
+    <row r="5" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A5" s="24" t="str">
         <f>项目!A5</f>
         <v>“天戈”遥控直升机障碍赛</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="24" t="str">
         <f>项目!B5</f>
         <v>B1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="24">
         <v>30</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="24">
         <v>25</v>
       </c>
-      <c r="E5" s="26">
-        <v>2</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="45">
+        <v>3</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="32"/>
+      <c r="O5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="32">
         <v>20</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="32">
         <v>6</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="32">
         <v>6</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="32">
         <v>8</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="32">
         <v>8</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="32">
         <v>20</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="32">
         <v>20</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="32">
         <v>8</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AB5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A6" s="5" t="str">
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+    </row>
+    <row r="6" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A6" s="24" t="str">
         <f>项目!A6</f>
         <v>环保时装秀</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="24" t="str">
         <f>项目!B6</f>
         <v>C1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="24">
         <v>30</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="24">
         <v>25</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="45">
         <v>2</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="12" t="s">
+      <c r="N6" s="32"/>
+      <c r="O6" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="32">
         <v>25</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="32">
         <v>6</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="32">
         <v>6</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="32">
         <v>8</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="32">
         <v>8</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="32">
         <v>20</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="32">
         <v>20</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="32">
         <v>8</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Z6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AB6" s="17" t="s">
+      <c r="AB6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="28" customHeight="1" spans="1:30">
-      <c r="A7" s="5" t="str">
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+    </row>
+    <row r="7" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="A7" s="24" t="str">
         <f>项目!A7</f>
         <v>环保创意制作</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="24" t="str">
         <f>项目!B7</f>
         <v>C2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="24">
         <v>30</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="24">
         <v>25</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="45">
         <v>2</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="12" t="s">
+      <c r="N7" s="32"/>
+      <c r="O7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="32">
         <v>25</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="32">
         <v>6</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="32">
         <v>6</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="32">
         <v>8</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="32">
         <v>8</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="32">
         <v>20</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="32">
         <v>20</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="32">
         <v>8</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AA7" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="17" t="s">
+      <c r="AB7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="28" customHeight="1" spans="5:30">
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+    </row>
+    <row r="8" s="24" customFormat="1" ht="28" customHeight="1" spans="5:30">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:30">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:30">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:30">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:30">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" ht="28" customHeight="1" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
     </row>
     <row r="17" ht="28" customHeight="1"/>
     <row r="18" ht="28" customHeight="1"/>
@@ -2923,12 +3116,12 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD12"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2948,756 +3141,752 @@
   <sheetData>
     <row r="1" ht="23" customHeight="1"/>
     <row r="2" ht="24" spans="1:32">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A3" s="5" t="str">
+    <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A3" s="24" t="str">
         <f>项目!A3</f>
         <v>“七彩风车小屋”拼装彩绘个人赛</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="24" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="28">
         <v>30</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="24">
         <v>20</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="33">
         <v>25</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="33">
         <v>6</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="33">
         <v>8</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="33">
         <v>15</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="33">
         <v>17</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14">
+      <c r="S3" s="33"/>
+      <c r="T3" s="33">
         <v>5</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="33">
         <v>6</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="33">
         <v>5</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AD3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AF3" s="21"/>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A4" s="5" t="str">
+      <c r="AF3" s="40"/>
+    </row>
+    <row r="4" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A4" s="24" t="str">
         <f>项目!A4</f>
         <v>“缤纷童年”场景规划制作团体赛</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="24" t="str">
         <f>项目!B4</f>
         <v>A2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="28">
         <v>30</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="24">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="33">
         <v>25</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="33">
         <v>6</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="33">
         <v>8</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="33">
         <v>15</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="33">
         <v>17</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14">
+      <c r="S4" s="33"/>
+      <c r="T4" s="33">
         <v>5</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="33">
         <v>6</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="33">
         <v>5</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="X4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="16" t="s">
+      <c r="Y4" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AA4" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AB4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AC4" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AD4" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AF4" s="21"/>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A5" s="5" t="str">
+      <c r="AF4" s="40"/>
+    </row>
+    <row r="5" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A5" s="24" t="str">
         <f>项目!A5</f>
         <v>“天戈”遥控直升机障碍赛</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="24" t="str">
         <f>项目!B5</f>
         <v>B1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="28">
         <v>30</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="24">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="33">
         <v>25</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="33">
         <v>6</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="33">
         <v>8</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="33">
         <v>15</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="33">
         <v>17</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14">
+      <c r="S5" s="33"/>
+      <c r="T5" s="33">
         <v>5</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="33">
         <v>6</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="33">
         <v>5</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AA5" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AB5" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AC5" s="19" t="s">
+      <c r="AC5" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AD5" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AE5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AF5" s="21"/>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A6" s="5" t="str">
+      <c r="AF5" s="40"/>
+    </row>
+    <row r="6" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A6" s="24" t="str">
         <f>项目!A6</f>
         <v>环保时装秀</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="24" t="str">
         <f>项目!B6</f>
         <v>C1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="28">
         <v>30</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="24">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="33">
         <v>25</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="33">
         <v>6</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="33">
         <v>8</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="33">
         <v>15</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="33">
         <v>17</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14">
+      <c r="S6" s="33"/>
+      <c r="T6" s="33">
         <v>5</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="33">
         <v>6</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="33">
         <v>5</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AA6" s="18" t="s">
+      <c r="AA6" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="18" t="s">
+      <c r="AB6" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AF6" s="21"/>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="28" customHeight="1" spans="1:32">
-      <c r="A7" s="5" t="str">
+      <c r="AF6" s="40"/>
+    </row>
+    <row r="7" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="A7" s="24" t="str">
         <f>项目!A7</f>
         <v>环保创意制作</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="24" t="str">
         <f>项目!B7</f>
         <v>C2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="28">
         <v>30</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="24">
         <v>20</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="33">
         <v>25</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="33">
         <v>6</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="33">
         <v>8</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="33">
         <v>15</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="33">
         <v>17</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14">
+      <c r="S7" s="33"/>
+      <c r="T7" s="33">
         <v>5</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="33">
         <v>6</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="33">
         <v>5</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="Z7" s="16" t="s">
+      <c r="Z7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="18" t="s">
+      <c r="AA7" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AC7" s="19" t="s">
+      <c r="AC7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AD7" s="19" t="s">
+      <c r="AD7" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AE7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AF7" s="21"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="28" customHeight="1" spans="3:32">
-      <c r="C8" s="9"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="21"/>
+      <c r="AF7" s="40"/>
+    </row>
+    <row r="8" s="24" customFormat="1" ht="28" customHeight="1" spans="3:32">
+      <c r="C8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="40"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:32">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:32">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="21"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="40"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:32">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:32">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="21"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="40"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" ht="28" customHeight="1" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" ht="28" customHeight="1" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
     </row>
     <row r="17" ht="28" customHeight="1"/>
     <row r="18" ht="28" customHeight="1"/>
@@ -3726,18 +3915,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="230" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" ht="407" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" ht="33" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3757,7 +3946,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -3787,4 +3976,184 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M2:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="6" max="12" width="3.625" customWidth="1"/>
+    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="5.625" customWidth="1"/>
+    <col min="23" max="23" width="9.625" customWidth="1"/>
+    <col min="24" max="24" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:24">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:24">
+      <c r="A3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="X3" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="O1:W1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/配置文件/2016昆山实践操作赛.xlsx
+++ b/配置文件/2016昆山实践操作赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="7"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <author>Eyes</author>
   </authors>
   <commentList>
-    <comment ref="AC2" authorId="0">
+    <comment ref="AE2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,6 +92,36 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"/>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">纵向： 90－100
+       90 最佳
+横向：135－145
+       135最佳</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">纵
+横</t>
         </r>
       </text>
     </comment>
@@ -241,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>名称</t>
   </si>
@@ -366,6 +396,9 @@
     <t>首条数据行号</t>
   </si>
   <si>
+    <t>纸张方向</t>
+  </si>
+  <si>
     <t>缩至一页</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>字段8</t>
   </si>
   <si>
+    <t>总宽度</t>
+  </si>
+  <si>
     <t>宽度1</t>
   </si>
   <si>
@@ -441,6 +477,12 @@
     <t>字段值7</t>
   </si>
   <si>
+    <t>字段值8</t>
+  </si>
+  <si>
+    <t>纵</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
@@ -481,9 +523,6 @@
   </si>
   <si>
     <t>宽度9</t>
-  </si>
-  <si>
-    <t>字段值8</t>
   </si>
   <si>
     <t>字段值9</t>
@@ -586,8 +625,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
@@ -595,7 +634,7 @@
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="179" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -677,8 +716,123 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -693,90 +847,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -801,28 +881,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -861,6 +919,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -873,7 +937,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,61 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,25 +997,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,49 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,19 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,11 +1208,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,17 +1247,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,26 +1305,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1255,10 +1313,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1267,138 +1325,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1528,6 +1586,9 @@
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1537,40 +1598,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1977,13 +2050,13 @@
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2042,28 +2115,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="53" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="59" customWidth="1"/>
     <col min="3" max="3" width="10.6" style="40" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="51" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="58" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="56" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="57" customWidth="1"/>
     <col min="8" max="8" width="28.25" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:3">
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:8">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -2072,30 +2145,30 @@
       <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="57" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="40" t="s">
@@ -2103,19 +2176,19 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="57" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="40" t="s">
@@ -2123,19 +2196,19 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="59" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="57" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="40" t="s">
@@ -2143,19 +2216,19 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="59" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="57" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="40" t="s">
@@ -2163,19 +2236,19 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="59" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="57" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="40" t="s">
@@ -2221,41 +2294,41 @@
       <c r="F1"/>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:6">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="53" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="49" t="str">
+      <c r="A3" s="54" t="str">
         <f>项目!A3</f>
         <v>“七彩风车小屋”拼装彩绘个人赛</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="54" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="55">
         <v>6</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="57" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="40" t="s">
@@ -2263,21 +2336,21 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="49" t="str">
+      <c r="A4" s="54" t="str">
         <f>项目!A4</f>
         <v>“缤纷童年”场景规划制作团体赛</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="54" t="str">
         <f>项目!B4</f>
         <v>A2</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="55">
         <v>6</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="57" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="40" t="s">
@@ -2285,21 +2358,21 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6">
-      <c r="A5" s="49" t="str">
+      <c r="A5" s="54" t="str">
         <f>项目!A5</f>
         <v>“天戈”遥控直升机障碍赛</v>
       </c>
-      <c r="B5" s="49" t="str">
+      <c r="B5" s="54" t="str">
         <f>项目!B5</f>
         <v>B1</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="55">
         <v>6</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="57" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="40" t="s">
@@ -2307,21 +2380,21 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:6">
-      <c r="A6" s="49" t="str">
+      <c r="A6" s="54" t="str">
         <f>项目!A6</f>
         <v>环保时装秀</v>
       </c>
-      <c r="B6" s="49" t="str">
+      <c r="B6" s="54" t="str">
         <f>项目!B6</f>
         <v>C1</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="55">
         <v>6</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="57" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="40" t="s">
@@ -2329,21 +2402,21 @@
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:6">
-      <c r="A7" s="49" t="str">
+      <c r="A7" s="54" t="str">
         <f>项目!A7</f>
         <v>环保创意制作</v>
       </c>
-      <c r="B7" s="49" t="str">
+      <c r="B7" s="54" t="str">
         <f>项目!B7</f>
         <v>C2</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="55">
         <v>6</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="57" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="40" t="s">
@@ -2368,14 +2441,14 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2385,21 +2458,21 @@
     <col min="3" max="3" width="3.875" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="3.875" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="12" width="6.75" customWidth="1"/>
-    <col min="13" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="6.75" customWidth="1"/>
-    <col min="16" max="23" width="4.125" customWidth="1"/>
-    <col min="24" max="25" width="8.875" customWidth="1"/>
-    <col min="26" max="26" width="12.125" customWidth="1"/>
-    <col min="27" max="28" width="8.875" customWidth="1"/>
-    <col min="29" max="30" width="20.375" customWidth="1"/>
+    <col min="6" max="7" width="3.875" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="13" width="6.75" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="6.75" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="43" customWidth="1"/>
+    <col min="18" max="25" width="4.125" customWidth="1"/>
+    <col min="26" max="32" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1"/>
-    <row r="2" ht="24" spans="1:30">
+    <row r="1" ht="23" customHeight="1" spans="17:17">
+      <c r="Q1" s="47"/>
+    </row>
+    <row r="2" ht="24" spans="1:33">
       <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
@@ -2412,16 +2485,16 @@
       <c r="D2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="45" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="27" t="s">
@@ -2445,10 +2518,10 @@
       <c r="O2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="48" t="s">
         <v>52</v>
       </c>
       <c r="R2" s="30" t="s">
@@ -2469,10 +2542,10 @@
       <c r="W2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="30" t="s">
         <v>60</v>
       </c>
       <c r="Z2" s="27" t="s">
@@ -2490,8 +2563,17 @@
       <c r="AD2" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+      <c r="AE2" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A3" s="24" t="str">
         <f>项目!A3</f>
         <v>“七彩风车小屋”拼装彩绘个人赛</v>
@@ -2506,80 +2588,81 @@
       <c r="D3" s="24">
         <v>25</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="46">
         <v>2</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>68</v>
+      <c r="F3" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="I3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="K3" s="24"/>
       <c r="L3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="32">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="32">
+        <v>73</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="49">
+        <f t="shared" ref="Q3:Q7" si="0">SUM(R3:Y3)</f>
+        <v>84</v>
+      </c>
+      <c r="R3" s="32">
+        <v>30</v>
+      </c>
+      <c r="S3" s="32">
         <v>6</v>
       </c>
-      <c r="R3" s="32">
-        <v>6</v>
-      </c>
-      <c r="S3" s="32">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32">
         <v>8</v>
       </c>
-      <c r="T3" s="32">
+      <c r="V3" s="32">
         <v>8</v>
       </c>
-      <c r="U3" s="32">
+      <c r="W3" s="32">
         <v>20</v>
       </c>
-      <c r="V3" s="32">
-        <v>20</v>
-      </c>
-      <c r="W3" s="32">
-        <v>8</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>74</v>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32">
+        <v>12</v>
       </c>
       <c r="Z3" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA3" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-    </row>
-    <row r="4" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+    </row>
+    <row r="4" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A4" s="24" t="str">
         <f>项目!A4</f>
         <v>“缤纷童年”场景规划制作团体赛</v>
@@ -2594,80 +2677,80 @@
       <c r="D4" s="24">
         <v>25</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="46">
         <v>2</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>68</v>
+      <c r="F4" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="I4" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>69</v>
-      </c>
       <c r="L4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="32">
+        <v>73</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="32"/>
+      <c r="P4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="49">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="R4" s="32">
         <v>25</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="S4" s="32">
         <v>6</v>
       </c>
-      <c r="R4" s="32">
-        <v>6</v>
-      </c>
-      <c r="S4" s="32">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32">
+        <v>30</v>
+      </c>
+      <c r="V4" s="32">
         <v>8</v>
       </c>
-      <c r="T4" s="32">
-        <v>8</v>
-      </c>
-      <c r="U4" s="32">
-        <v>20</v>
-      </c>
-      <c r="V4" s="32">
-        <v>20</v>
-      </c>
       <c r="W4" s="32">
-        <v>8</v>
-      </c>
-      <c r="X4" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="36" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32">
+        <v>10</v>
       </c>
       <c r="Z4" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA4" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB4" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-    </row>
-    <row r="5" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD4" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+    </row>
+    <row r="5" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A5" s="24" t="str">
         <f>项目!A5</f>
         <v>“天戈”遥控直升机障碍赛</v>
@@ -2682,80 +2765,85 @@
       <c r="D5" s="24">
         <v>25</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="46">
         <v>3</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>68</v>
+      <c r="F5" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="I5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="K5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="24" t="s">
-        <v>69</v>
-      </c>
       <c r="L5" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="32">
+        <v>73</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="32"/>
+      <c r="P5" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="49">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="R5" s="32">
+        <v>30</v>
+      </c>
+      <c r="S5" s="32">
+        <v>6</v>
+      </c>
+      <c r="T5" s="32">
+        <v>6</v>
+      </c>
+      <c r="U5" s="32">
+        <v>8</v>
+      </c>
+      <c r="V5" s="32">
+        <v>8</v>
+      </c>
+      <c r="W5" s="32">
         <v>20</v>
       </c>
-      <c r="Q5" s="32">
-        <v>6</v>
-      </c>
-      <c r="R5" s="32">
-        <v>6</v>
-      </c>
-      <c r="S5" s="32">
-        <v>8</v>
-      </c>
-      <c r="T5" s="32">
-        <v>8</v>
-      </c>
-      <c r="U5" s="32">
-        <v>20</v>
-      </c>
-      <c r="V5" s="32">
-        <v>20</v>
-      </c>
-      <c r="W5" s="32">
-        <v>8</v>
-      </c>
-      <c r="X5" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5" s="36" t="s">
-        <v>74</v>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32">
+        <v>12</v>
       </c>
       <c r="Z5" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA5" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB5" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-    </row>
-    <row r="6" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+    </row>
+    <row r="6" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A6" s="24" t="str">
         <f>项目!A6</f>
         <v>环保时装秀</v>
@@ -2770,80 +2858,81 @@
       <c r="D6" s="24">
         <v>25</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="46">
         <v>2</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>68</v>
+      <c r="F6" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="I6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="K6" s="24"/>
       <c r="L6" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" s="32">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="32">
+        <v>73</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="49">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="R6" s="32">
+        <v>30</v>
+      </c>
+      <c r="S6" s="32">
         <v>6</v>
       </c>
-      <c r="R6" s="32">
-        <v>6</v>
-      </c>
-      <c r="S6" s="32">
+      <c r="T6" s="32"/>
+      <c r="U6" s="32">
         <v>8</v>
       </c>
-      <c r="T6" s="32">
+      <c r="V6" s="32">
         <v>8</v>
       </c>
-      <c r="U6" s="32">
+      <c r="W6" s="32">
         <v>20</v>
       </c>
-      <c r="V6" s="32">
-        <v>20</v>
-      </c>
-      <c r="W6" s="32">
-        <v>8</v>
-      </c>
-      <c r="X6" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y6" s="36" t="s">
-        <v>74</v>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32">
+        <v>12</v>
       </c>
       <c r="Z6" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA6" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB6" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-    </row>
-    <row r="7" s="24" customFormat="1" ht="28" customHeight="1" spans="1:30">
+        <v>79</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD6" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+    </row>
+    <row r="7" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A7" s="24" t="str">
         <f>项目!A7</f>
         <v>环保创意制作</v>
@@ -2858,230 +2947,241 @@
       <c r="D7" s="24">
         <v>25</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="46">
         <v>2</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>68</v>
+      <c r="F7" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="I7" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="K7" s="24"/>
       <c r="L7" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="32">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="32">
+        <v>73</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="49">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="R7" s="32">
+        <v>30</v>
+      </c>
+      <c r="S7" s="32">
         <v>6</v>
       </c>
-      <c r="R7" s="32">
-        <v>6</v>
-      </c>
-      <c r="S7" s="32">
+      <c r="T7" s="32"/>
+      <c r="U7" s="32">
         <v>8</v>
       </c>
-      <c r="T7" s="32">
+      <c r="V7" s="32">
         <v>8</v>
       </c>
-      <c r="U7" s="32">
+      <c r="W7" s="32">
         <v>20</v>
       </c>
-      <c r="V7" s="32">
-        <v>20</v>
-      </c>
-      <c r="W7" s="32">
-        <v>8</v>
-      </c>
-      <c r="X7" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" s="36" t="s">
-        <v>74</v>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32">
+        <v>12</v>
       </c>
       <c r="Z7" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA7" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB7" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-    </row>
-    <row r="8" s="24" customFormat="1" ht="28" customHeight="1" spans="5:30">
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="H8" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="AC7" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+    </row>
+    <row r="8" s="24" customFormat="1" ht="28" customHeight="1" spans="5:32">
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="I8" s="29"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+      <c r="J8" s="29"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="50"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
       <c r="Z8" s="36"/>
       <c r="AA8" s="36"/>
       <c r="AB8" s="36"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="1:30">
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="1:32">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="29"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="29"/>
-      <c r="J9" s="24"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="50"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
       <c r="Z9" s="36"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="36"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="1:30">
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="1:32">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="29"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="50"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
       <c r="Z10" s="36"/>
       <c r="AA10" s="36"/>
       <c r="AB10" s="36"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="1:30">
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="1:32">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="29"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="50"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
       <c r="Z11" s="36"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="36"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-    </row>
-    <row r="12" ht="28" customHeight="1" spans="1:30">
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:32">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="29"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="50"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
       <c r="T12" s="32"/>
       <c r="U12" s="32"/>
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
       <c r="Z12" s="36"/>
       <c r="AA12" s="36"/>
       <c r="AB12" s="36"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:2">
       <c r="A13" s="24"/>
@@ -3154,88 +3254,88 @@
         <v>39</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AF2" s="30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
@@ -3254,29 +3354,29 @@
         <v>20</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N3" s="33">
         <v>25</v>
@@ -3304,31 +3404,31 @@
         <v>5</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X3" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Z3" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA3" s="37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB3" s="37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AC3" s="38" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD3" s="38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AE3" s="39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF3" s="40"/>
     </row>
@@ -3348,29 +3448,29 @@
         <v>20</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N4" s="33">
         <v>25</v>
@@ -3398,31 +3498,31 @@
         <v>5</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y4" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Z4" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA4" s="37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB4" s="37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AC4" s="38" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD4" s="38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AE4" s="39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF4" s="40"/>
     </row>
@@ -3442,29 +3542,29 @@
         <v>20</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N5" s="33">
         <v>25</v>
@@ -3492,31 +3592,31 @@
         <v>5</v>
       </c>
       <c r="W5" s="36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Z5" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB5" s="37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AC5" s="38" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AE5" s="39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF5" s="40"/>
     </row>
@@ -3536,29 +3636,29 @@
         <v>20</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N6" s="33">
         <v>25</v>
@@ -3586,31 +3686,31 @@
         <v>5</v>
       </c>
       <c r="W6" s="36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X6" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y6" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Z6" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA6" s="37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB6" s="37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AC6" s="38" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD6" s="38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AE6" s="39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF6" s="40"/>
     </row>
@@ -3630,29 +3730,29 @@
         <v>20</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N7" s="33">
         <v>25</v>
@@ -3680,31 +3780,31 @@
         <v>5</v>
       </c>
       <c r="W7" s="36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X7" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y7" s="35" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Z7" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AA7" s="37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB7" s="37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AC7" s="38" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD7" s="38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AE7" s="39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF7" s="40"/>
     </row>
@@ -3916,18 +4016,18 @@
   <sheetData>
     <row r="1" ht="230" customHeight="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" ht="407" customHeight="1" spans="1:7">
       <c r="A2" s="21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G2" s="22"/>
     </row>
     <row r="3" ht="33" spans="1:1">
       <c r="A3" s="23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3953,22 +4053,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3980,10 +4080,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M2:N3"/>
     </sheetView>
   </sheetViews>
@@ -4009,7 +4111,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4020,7 +4122,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -4034,7 +4136,7 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:24">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -4043,84 +4145,84 @@
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="P2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="Q2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="U2" s="17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:24">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -4131,7 +4233,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
@@ -4142,7 +4244,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="X3" s="8"/>
     </row>

--- a/配置文件/2016昆山实践操作赛.xlsx
+++ b/配置文件/2016昆山实践操作赛.xlsx
@@ -625,10 +625,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="177" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
@@ -742,8 +742,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -757,7 +804,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -773,28 +828,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -808,22 +850,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -832,39 +858,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -878,9 +872,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -943,31 +943,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,7 +973,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,25 +1015,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,55 +1075,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,13 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,6 +1208,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1219,6 +1258,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,67 +1300,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,10 +1313,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1325,133 +1325,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2448,7 +2448,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3:Y7"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2606,7 +2606,6 @@
       <c r="J3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="24"/>
       <c r="L3" s="24" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +2875,6 @@
       <c r="J6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="24"/>
       <c r="L6" s="24" t="s">
         <v>73</v>
       </c>
@@ -2965,7 +2963,6 @@
       <c r="J7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="24"/>
       <c r="L7" s="24" t="s">
         <v>73</v>
       </c>

--- a/配置文件/2016昆山实践操作赛.xlsx
+++ b/配置文件/2016昆山实践操作赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="3"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
     <author>Eyes</author>
   </authors>
   <commentList>
-    <comment ref="AB2" authorId="0">
+    <comment ref="AC2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="0">
+    <comment ref="AG2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,19 +159,6 @@
           </rPr>
           <t xml:space="preserve">这里指用PHP函数来确定的格式
 直接输入调用的函数名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">单元格的格式将影响最终成绩册里的显示</t>
         </r>
       </text>
     </comment>
@@ -227,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0">
+    <comment ref="AB2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,6 +253,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">单元格的格式将影响最终成绩册里的显示</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -625,10 +625,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="177" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
@@ -716,15 +716,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFF00"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -735,8 +735,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -744,7 +781,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -758,32 +795,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -805,37 +834,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -850,30 +848,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -937,19 +937,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,13 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,7 +991,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,13 +1069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,97 +1087,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,30 +1208,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1247,6 +1223,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1258,6 +1252,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,26 +1291,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,10 +1313,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1325,16 +1325,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1343,115 +1343,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1547,6 +1547,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1556,6 +1559,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1563,10 +1569,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -1577,16 +1583,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1600,12 +1606,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2117,12 +2117,12 @@
   <cols>
     <col min="1" max="1" width="24.875" style="58" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.6" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.6" style="44" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="58" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="58" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="56" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="40" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:3">
@@ -2162,7 +2162,7 @@
       <c r="B3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="56" t="s">
@@ -2171,7 +2171,7 @@
       <c r="G3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
       <c r="B4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="56" t="s">
@@ -2191,7 +2191,7 @@
       <c r="G4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       <c r="B5" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="56" t="s">
@@ -2211,7 +2211,7 @@
       <c r="G5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="B6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="56" t="s">
@@ -2231,7 +2231,7 @@
       <c r="G6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       <c r="B7" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="56" t="s">
@@ -2251,7 +2251,7 @@
       <c r="G7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="29" style="40" customWidth="1"/>
+    <col min="6" max="6" width="29" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="6:6">
@@ -2331,7 +2331,7 @@
       <c r="E3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="44" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       <c r="E4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="44" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       <c r="E5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="44" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       <c r="E6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="44" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       <c r="E7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="44" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2464,13 +2464,13 @@
     <col min="14" max="14" width="9.125" customWidth="1"/>
     <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="6.75" customWidth="1"/>
-    <col min="17" max="17" width="4.125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="45" customWidth="1"/>
     <col min="18" max="25" width="4.125" customWidth="1"/>
     <col min="26" max="32" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="17:17">
-      <c r="Q1" s="47"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" ht="24" spans="1:33">
       <c r="A2" s="25" t="s">
@@ -2485,16 +2485,16 @@
       <c r="D2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="47" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="27" t="s">
@@ -2521,31 +2521,31 @@
       <c r="P2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="31" t="s">
         <v>60</v>
       </c>
       <c r="Z2" s="27" t="s">
@@ -2588,13 +2588,13 @@
       <c r="D3" s="24">
         <v>25</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="48">
         <v>2</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="48" t="s">
         <v>70</v>
       </c>
       <c r="H3" s="24" t="s">
@@ -2612,54 +2612,54 @@
       <c r="M3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="31" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="34">
         <f t="shared" ref="Q3:Q7" si="0">SUM(R3:Y3)</f>
         <v>84</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="33">
         <v>30</v>
       </c>
-      <c r="S3" s="32">
+      <c r="S3" s="33">
         <v>6</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32">
+      <c r="T3" s="33"/>
+      <c r="U3" s="33">
         <v>8</v>
       </c>
-      <c r="V3" s="32">
+      <c r="V3" s="33">
         <v>8</v>
       </c>
-      <c r="W3" s="32">
+      <c r="W3" s="33">
         <v>20</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32">
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33">
         <v>12</v>
       </c>
-      <c r="Z3" s="36" t="s">
+      <c r="Z3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AA3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="36" t="s">
+      <c r="AB3" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AC3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD3" s="36" t="s">
+      <c r="AD3" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
     </row>
     <row r="4" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A4" s="24" t="str">
@@ -2676,13 +2676,13 @@
       <c r="D4" s="24">
         <v>25</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="48">
         <v>2</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="48" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -2700,54 +2700,54 @@
       <c r="M4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="31" t="s">
+      <c r="O4" s="33"/>
+      <c r="P4" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="34">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="33">
         <v>25</v>
       </c>
-      <c r="S4" s="32">
+      <c r="S4" s="33">
         <v>6</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33">
         <v>30</v>
       </c>
-      <c r="V4" s="32">
+      <c r="V4" s="33">
         <v>8</v>
       </c>
-      <c r="W4" s="32">
+      <c r="W4" s="33">
         <v>15</v>
       </c>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32">
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33">
         <v>10</v>
       </c>
-      <c r="Z4" s="36" t="s">
+      <c r="Z4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="36" t="s">
+      <c r="AA4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AC4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD4" s="36" t="s">
+      <c r="AD4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
     </row>
     <row r="5" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A5" s="24" t="str">
@@ -2764,13 +2764,13 @@
       <c r="D5" s="24">
         <v>25</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="48">
         <v>3</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="48" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="24" t="s">
@@ -2791,56 +2791,56 @@
       <c r="M5" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="33"/>
+      <c r="P5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="34">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="33">
         <v>30</v>
       </c>
-      <c r="S5" s="32">
+      <c r="S5" s="33">
         <v>6</v>
       </c>
-      <c r="T5" s="32">
+      <c r="T5" s="33">
         <v>6</v>
       </c>
-      <c r="U5" s="32">
+      <c r="U5" s="33">
         <v>8</v>
       </c>
-      <c r="V5" s="32">
+      <c r="V5" s="33">
         <v>8</v>
       </c>
-      <c r="W5" s="32">
+      <c r="W5" s="33">
         <v>20</v>
       </c>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32">
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33">
         <v>12</v>
       </c>
-      <c r="Z5" s="36" t="s">
+      <c r="Z5" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="36" t="s">
+      <c r="AA5" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="36" t="s">
+      <c r="AB5" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AC5" s="36" t="s">
+      <c r="AC5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD5" s="36" t="s">
+      <c r="AD5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
     </row>
     <row r="6" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A6" s="24" t="str">
@@ -2857,13 +2857,13 @@
       <c r="D6" s="24">
         <v>25</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="48">
         <v>2</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="48" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="24" t="s">
@@ -2881,54 +2881,54 @@
       <c r="M6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="31" t="s">
+      <c r="O6" s="33"/>
+      <c r="P6" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="34">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="33">
         <v>30</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="33">
         <v>6</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32">
+      <c r="T6" s="33"/>
+      <c r="U6" s="33">
         <v>8</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="33">
         <v>8</v>
       </c>
-      <c r="W6" s="32">
+      <c r="W6" s="33">
         <v>20</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32">
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33">
         <v>12</v>
       </c>
-      <c r="Z6" s="36" t="s">
+      <c r="Z6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" s="36" t="s">
+      <c r="AA6" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" s="36" t="s">
+      <c r="AB6" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AC6" s="36" t="s">
+      <c r="AC6" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD6" s="36" t="s">
+      <c r="AD6" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
     </row>
     <row r="7" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A7" s="24" t="str">
@@ -2945,13 +2945,13 @@
       <c r="D7" s="24">
         <v>25</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="48">
         <v>2</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="48" t="s">
         <v>70</v>
       </c>
       <c r="H7" s="24" t="s">
@@ -2969,216 +2969,216 @@
       <c r="M7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="32"/>
-      <c r="P7" s="31" t="s">
+      <c r="O7" s="33"/>
+      <c r="P7" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="34">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="33">
         <v>30</v>
       </c>
-      <c r="S7" s="32">
+      <c r="S7" s="33">
         <v>6</v>
       </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32">
+      <c r="T7" s="33"/>
+      <c r="U7" s="33">
         <v>8</v>
       </c>
-      <c r="V7" s="32">
+      <c r="V7" s="33">
         <v>8</v>
       </c>
-      <c r="W7" s="32">
+      <c r="W7" s="33">
         <v>20</v>
       </c>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32">
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33">
         <v>12</v>
       </c>
-      <c r="Z7" s="36" t="s">
+      <c r="Z7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA7" s="36" t="s">
+      <c r="AA7" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="AB7" s="36" t="s">
+      <c r="AB7" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AC7" s="36" t="s">
+      <c r="AC7" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AD7" s="36" t="s">
+      <c r="AD7" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
     </row>
     <row r="8" s="24" customFormat="1" ht="28" customHeight="1" spans="5:32">
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="32"/>
       <c r="Q8" s="50"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:32">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="24"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="32"/>
       <c r="Q9" s="50"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:32">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="24"/>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="31"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="32"/>
       <c r="Q10" s="50"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:32">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="24"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="32"/>
       <c r="Q11" s="50"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:32">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="24"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="31"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="50"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:2">
       <c r="A13" s="24"/>
@@ -3211,14 +3211,14 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3231,13 +3231,13 @@
     <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="9.625" customWidth="1"/>
     <col min="11" max="13" width="6.75" customWidth="1"/>
-    <col min="14" max="22" width="4.125" customWidth="1"/>
-    <col min="23" max="31" width="8.875" customWidth="1"/>
-    <col min="32" max="32" width="11.125" customWidth="1"/>
+    <col min="14" max="23" width="4.125" customWidth="1"/>
+    <col min="24" max="32" width="8.875" customWidth="1"/>
+    <col min="33" max="33" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1"/>
-    <row r="2" ht="24" spans="1:32">
+    <row r="2" ht="24" spans="1:33">
       <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
@@ -3278,64 +3278,67 @@
         <v>82</v>
       </c>
       <c r="N2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="P2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="Q2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="R2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="S2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="T2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="U2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="V2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="W2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="X2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="Y2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Z2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="AA2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AB2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AC2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AD2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AE2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" s="27" t="s">
+      <c r="AF2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AG2" s="31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+    <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
       <c r="A3" s="24" t="str">
         <f>项目!A3</f>
         <v>“七彩风车小屋”拼装彩绘个人赛</v>
@@ -3362,74 +3365,78 @@
       <c r="H3" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="34">
+        <f>SUM(O3:W3)</f>
+        <v>87</v>
+      </c>
+      <c r="O3" s="35">
         <v>25</v>
       </c>
-      <c r="O3" s="33">
+      <c r="P3" s="35">
         <v>6</v>
       </c>
-      <c r="P3" s="33">
+      <c r="Q3" s="35">
         <v>8</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="R3" s="35">
         <v>15</v>
       </c>
-      <c r="R3" s="33">
+      <c r="S3" s="35">
         <v>17</v>
       </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33">
+      <c r="T3" s="35"/>
+      <c r="U3" s="35">
         <v>5</v>
       </c>
-      <c r="U3" s="33">
+      <c r="V3" s="35">
         <v>6</v>
       </c>
-      <c r="V3" s="33">
+      <c r="W3" s="35">
         <v>5</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="X3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="Y3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Z3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="AA3" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AB3" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="37" t="s">
+      <c r="AC3" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AC3" s="38" t="s">
+      <c r="AD3" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD3" s="38" t="s">
+      <c r="AE3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AE3" s="39" t="s">
+      <c r="AF3" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="AF3" s="40"/>
-    </row>
-    <row r="4" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="AG3" s="44"/>
+    </row>
+    <row r="4" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
       <c r="A4" s="24" t="str">
         <f>项目!A4</f>
         <v>“缤纷童年”场景规划制作团体赛</v>
@@ -3456,74 +3463,78 @@
       <c r="H4" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="34">
+        <f>SUM(O4:W4)</f>
+        <v>87</v>
+      </c>
+      <c r="O4" s="35">
         <v>25</v>
       </c>
-      <c r="O4" s="33">
+      <c r="P4" s="35">
         <v>6</v>
       </c>
-      <c r="P4" s="33">
+      <c r="Q4" s="35">
         <v>8</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="R4" s="35">
         <v>15</v>
       </c>
-      <c r="R4" s="33">
+      <c r="S4" s="35">
         <v>17</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33">
+      <c r="T4" s="35"/>
+      <c r="U4" s="35">
         <v>5</v>
       </c>
-      <c r="U4" s="33">
+      <c r="V4" s="35">
         <v>6</v>
       </c>
-      <c r="V4" s="33">
+      <c r="W4" s="35">
         <v>5</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="X4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="Y4" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Z4" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="AA4" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AB4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AB4" s="37" t="s">
+      <c r="AC4" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="38" t="s">
+      <c r="AD4" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD4" s="38" t="s">
+      <c r="AE4" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AE4" s="39" t="s">
+      <c r="AF4" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="AF4" s="40"/>
-    </row>
-    <row r="5" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="AG4" s="44"/>
+    </row>
+    <row r="5" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
       <c r="A5" s="24" t="str">
         <f>项目!A5</f>
         <v>“天戈”遥控直升机障碍赛</v>
@@ -3550,74 +3561,78 @@
       <c r="H5" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="34">
+        <f>SUM(O5:W5)</f>
+        <v>87</v>
+      </c>
+      <c r="O5" s="35">
         <v>25</v>
       </c>
-      <c r="O5" s="33">
+      <c r="P5" s="35">
         <v>6</v>
       </c>
-      <c r="P5" s="33">
+      <c r="Q5" s="35">
         <v>8</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="R5" s="35">
         <v>15</v>
       </c>
-      <c r="R5" s="33">
+      <c r="S5" s="35">
         <v>17</v>
       </c>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33">
+      <c r="T5" s="35"/>
+      <c r="U5" s="35">
         <v>5</v>
       </c>
-      <c r="U5" s="33">
+      <c r="V5" s="35">
         <v>6</v>
       </c>
-      <c r="V5" s="33">
+      <c r="W5" s="35">
         <v>5</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="X5" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="Y5" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Y5" s="35" t="s">
+      <c r="Z5" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="AA5" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AB5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AC5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AC5" s="38" t="s">
+      <c r="AD5" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD5" s="38" t="s">
+      <c r="AE5" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AE5" s="39" t="s">
+      <c r="AF5" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="AF5" s="40"/>
-    </row>
-    <row r="6" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="AG5" s="44"/>
+    </row>
+    <row r="6" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
       <c r="A6" s="24" t="str">
         <f>项目!A6</f>
         <v>环保时装秀</v>
@@ -3644,74 +3659,78 @@
       <c r="H6" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32" t="s">
+      <c r="J6" s="33"/>
+      <c r="K6" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="34">
+        <f>SUM(O6:W6)</f>
+        <v>87</v>
+      </c>
+      <c r="O6" s="35">
         <v>25</v>
       </c>
-      <c r="O6" s="33">
+      <c r="P6" s="35">
         <v>6</v>
       </c>
-      <c r="P6" s="33">
+      <c r="Q6" s="35">
         <v>8</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="R6" s="35">
         <v>15</v>
       </c>
-      <c r="R6" s="33">
+      <c r="S6" s="35">
         <v>17</v>
       </c>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33">
+      <c r="T6" s="35"/>
+      <c r="U6" s="35">
         <v>5</v>
       </c>
-      <c r="U6" s="33">
+      <c r="V6" s="35">
         <v>6</v>
       </c>
-      <c r="V6" s="33">
+      <c r="W6" s="35">
         <v>5</v>
       </c>
-      <c r="W6" s="36" t="s">
+      <c r="X6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="35" t="s">
+      <c r="Y6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Z6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="AA6" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AA6" s="37" t="s">
+      <c r="AB6" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AB6" s="37" t="s">
+      <c r="AC6" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AC6" s="38" t="s">
+      <c r="AD6" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD6" s="38" t="s">
+      <c r="AE6" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AE6" s="39" t="s">
+      <c r="AF6" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="AF6" s="40"/>
-    </row>
-    <row r="7" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
+      <c r="AG6" s="44"/>
+    </row>
+    <row r="7" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
       <c r="A7" s="24" t="str">
         <f>项目!A7</f>
         <v>环保创意制作</v>
@@ -3738,102 +3757,107 @@
       <c r="H7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32" t="s">
+      <c r="J7" s="33"/>
+      <c r="K7" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="34">
+        <f>SUM(O7:W7)</f>
+        <v>87</v>
+      </c>
+      <c r="O7" s="35">
         <v>25</v>
       </c>
-      <c r="O7" s="33">
+      <c r="P7" s="35">
         <v>6</v>
       </c>
-      <c r="P7" s="33">
+      <c r="Q7" s="35">
         <v>8</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="R7" s="35">
         <v>15</v>
       </c>
-      <c r="R7" s="33">
+      <c r="S7" s="35">
         <v>17</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33">
+      <c r="T7" s="35"/>
+      <c r="U7" s="35">
         <v>5</v>
       </c>
-      <c r="U7" s="33">
+      <c r="V7" s="35">
         <v>6</v>
       </c>
-      <c r="V7" s="33">
+      <c r="W7" s="35">
         <v>5</v>
       </c>
-      <c r="W7" s="36" t="s">
+      <c r="X7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="Y7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Y7" s="35" t="s">
+      <c r="Z7" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="Z7" s="35" t="s">
+      <c r="AA7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AA7" s="37" t="s">
+      <c r="AB7" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AB7" s="37" t="s">
+      <c r="AC7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="AC7" s="38" t="s">
+      <c r="AD7" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AD7" s="38" t="s">
+      <c r="AE7" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="AE7" s="39" t="s">
+      <c r="AF7" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="AF7" s="40"/>
-    </row>
-    <row r="8" s="24" customFormat="1" ht="28" customHeight="1" spans="3:32">
+      <c r="AG7" s="44"/>
+    </row>
+    <row r="8" s="24" customFormat="1" ht="28" customHeight="1" spans="3:33">
       <c r="C8" s="28"/>
       <c r="E8" s="29"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="40"/>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="1:32">
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="44"/>
+    </row>
+    <row r="9" ht="28" customHeight="1" spans="1:33">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="28"/>
@@ -3842,32 +3866,33 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="40"/>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="1:32">
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="44"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="1:33">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="28"/>
@@ -3876,32 +3901,33 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="40"/>
-    </row>
-    <row r="11" ht="28" customHeight="1" spans="1:32">
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="44"/>
+    </row>
+    <row r="11" ht="28" customHeight="1" spans="1:33">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="28"/>
@@ -3910,32 +3936,33 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="40"/>
-    </row>
-    <row r="12" ht="28" customHeight="1" spans="1:32">
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="44"/>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:33">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="28"/>
@@ -3944,30 +3971,31 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="40"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="44"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:2">
       <c r="A13" s="24"/>

--- a/配置文件/2016昆山实践操作赛.xlsx
+++ b/配置文件/2016昆山实践操作赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="4"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
     <t>隧道</t>
   </si>
   <si>
-    <t>停机</t>
+    <t>高台</t>
   </si>
   <si>
     <t>高山</t>
@@ -625,14 +625,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="177" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="179" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="178" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="179" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -735,9 +735,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -751,7 +750,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -759,6 +758,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -780,14 +787,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -795,38 +794,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -848,14 +817,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -872,8 +833,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -881,6 +874,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -937,7 +937,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +967,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +1003,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +1039,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,31 +1075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,73 +1087,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,30 +1208,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1273,20 +1249,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1305,6 +1285,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1313,10 +1313,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1325,133 +1325,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1565,7 +1565,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,7 +1574,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,10 +1583,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2443,12 +2443,12 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3:AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2646,16 +2646,16 @@
       <c r="Z3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AA3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="38" t="s">
         <v>81</v>
       </c>
       <c r="AE3" s="40"/>
@@ -2734,16 +2734,16 @@
       <c r="Z4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AA4" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AB4" s="37" t="s">
+      <c r="AB4" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AC4" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AD4" s="37" t="s">
+      <c r="AD4" s="38" t="s">
         <v>81</v>
       </c>
       <c r="AE4" s="40"/>
@@ -2827,16 +2827,16 @@
       <c r="Z5" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AA5" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AB5" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AC5" s="37" t="s">
+      <c r="AC5" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AD5" s="37" t="s">
+      <c r="AD5" s="38" t="s">
         <v>81</v>
       </c>
       <c r="AE5" s="40"/>
@@ -2915,16 +2915,16 @@
       <c r="Z6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" s="37" t="s">
+      <c r="AA6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" s="37" t="s">
+      <c r="AB6" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AC6" s="37" t="s">
+      <c r="AC6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AD6" s="37" t="s">
+      <c r="AD6" s="38" t="s">
         <v>81</v>
       </c>
       <c r="AE6" s="40"/>
@@ -3003,16 +3003,16 @@
       <c r="Z7" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AA7" s="37" t="s">
+      <c r="AA7" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AB7" s="37" t="s">
+      <c r="AB7" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AC7" s="37" t="s">
+      <c r="AC7" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AD7" s="37" t="s">
+      <c r="AD7" s="38" t="s">
         <v>81</v>
       </c>
       <c r="AE7" s="40"/>
@@ -3213,7 +3213,7 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3379,7 +3379,7 @@
         <v>76</v>
       </c>
       <c r="N3" s="34">
-        <f>SUM(O3:W3)</f>
+        <f t="shared" ref="N3:N7" si="0">SUM(O3:W3)</f>
         <v>87</v>
       </c>
       <c r="O3" s="35">
@@ -3477,7 +3477,7 @@
         <v>76</v>
       </c>
       <c r="N4" s="34">
-        <f>SUM(O4:W4)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="O4" s="35">
@@ -3575,7 +3575,7 @@
         <v>76</v>
       </c>
       <c r="N5" s="34">
-        <f>SUM(O5:W5)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="O5" s="35">
@@ -3673,7 +3673,7 @@
         <v>76</v>
       </c>
       <c r="N6" s="34">
-        <f>SUM(O6:W6)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="O6" s="35">
@@ -3771,7 +3771,7 @@
         <v>76</v>
       </c>
       <c r="N7" s="34">
-        <f>SUM(O7:W7)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="O7" s="35">
@@ -4111,7 +4111,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M2:N3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>

--- a/配置文件/2016昆山实践操作赛.xlsx
+++ b/配置文件/2016昆山实践操作赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="3"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>顾杰</author>
-    <author>Eyes</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0">
@@ -58,7 +57,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eyes</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,8 +76,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">excel:#0圈 00分00秒00
-php:Show::圈数_用时_进靶</t>
+          <t xml:space="preserve">指成绩中的用时文本长度（即使用strlen函数得到的值）</t>
         </r>
       </text>
     </comment>
@@ -76,7 +84,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eyes</author>
@@ -129,7 +137,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eyes</author>
@@ -271,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>名称</t>
   </si>
@@ -303,7 +311,7 @@
     <t>工作目录</t>
   </si>
   <si>
-    <t>d:/2016昆山实践操作</t>
+    <t>D:/wwwroot/MatchScores_2.0/2016昆山实践操作</t>
   </si>
   <si>
     <t>最后不要加“/”</t>
@@ -324,69 +332,63 @@
     <t>分组</t>
   </si>
   <si>
+    <t>“七彩风车小屋”拼装彩绘个人赛</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>小学 中学</t>
+  </si>
+  <si>
+    <t>“缤纷童年”场景规划制作团体赛</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>“天戈”遥控直升机障碍赛</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>环保时装秀</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>环保创意制作</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>用时长度</t>
+  </si>
+  <si>
     <t>成绩排序</t>
   </si>
   <si>
     <t>排序方式</t>
   </si>
   <si>
-    <t>成绩显示格式</t>
-  </si>
-  <si>
-    <t>“七彩风车小屋”拼装彩绘个人赛</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>小学 中学</t>
-  </si>
-  <si>
-    <t>高低分用时短</t>
+    <t>获奖比例</t>
+  </si>
+  <si>
+    <t>一轮比大小</t>
   </si>
   <si>
     <t>降序</t>
   </si>
   <si>
-    <t>excel:#0圈 00分00秒00</t>
-  </si>
-  <si>
-    <t>“缤纷童年”场景规划制作团体赛</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>“天戈”遥控直升机障碍赛</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>环保时装秀</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>环保创意制作</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>用时长度</t>
-  </si>
-  <si>
-    <t>获奖比例</t>
-  </si>
-  <si>
-    <t>高分低分用时短</t>
-  </si>
-  <si>
     <t>一等奖 0.1 二等奖 0.2 三等奖 0.3</t>
   </si>
   <si>
+    <t>比最高轮_得分大_用时短</t>
+  </si>
+  <si>
     <t>标题行高</t>
   </si>
   <si>
@@ -534,32 +536,32 @@
     <t>教练</t>
   </si>
   <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>奖项</t>
+  </si>
+  <si>
+    <t>[教练]</t>
+  </si>
+  <si>
+    <t>[成绩1]</t>
+  </si>
+  <si>
+    <t>[排名]</t>
+  </si>
+  <si>
+    <t>[奖项]</t>
+  </si>
+  <si>
     <t>第一轮
-圈数 时间</t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>奖项</t>
-  </si>
-  <si>
-    <t>[教练]</t>
-  </si>
-  <si>
-    <t>[成绩1]</t>
+得分 时间</t>
   </si>
   <si>
     <t>[成绩2]</t>
   </si>
   <si>
-    <t>[排名]</t>
-  </si>
-  <si>
-    <t>[奖项]</t>
-  </si>
-  <si>
-    <t>[备注1][备注2]</t>
+    <t>[成绩排序]</t>
   </si>
   <si>
     <t>2016年昆山市
@@ -624,15 +626,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="10">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#0&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="179" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="179" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="180" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="181" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -743,6 +747,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -750,23 +761,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -786,40 +795,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -835,7 +813,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -850,8 +828,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -865,6 +859,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -872,15 +874,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -943,7 +947,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +1031,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,13 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,37 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,13 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,73 +1109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,15 +1212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1247,30 +1242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1297,6 +1268,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1305,6 +1285,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1313,150 +1317,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,6 +1545,9 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,7 +1572,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,19 +1581,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2039,24 +2052,24 @@
   <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="48.25" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2107,36 +2120,33 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F1" sqref="F$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.6" style="44" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="58" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="56" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="44" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="61" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="10.6" style="47" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="61" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:3">
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:8">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:5">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="64" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -2145,123 +2155,63 @@
       <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="52" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="58" t="s">
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C4" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="B5" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="C5" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="B6" s="62" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="58" t="s">
+      <c r="C6" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>25</v>
+      <c r="C7" s="47" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65536"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G65536">
-      <formula1>"降序,升序"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2276,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2287,140 +2237,132 @@
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="29" style="44" customWidth="1"/>
+    <col min="6" max="6" width="29" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="6:6">
       <c r="F1"/>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:6">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>35</v>
+      <c r="C2" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
-      <c r="A3" s="54" t="str">
+      <c r="A3" s="57" t="str">
         <f>项目!A3</f>
         <v>“七彩风车小屋”拼装彩绘个人赛</v>
       </c>
-      <c r="B3" s="54" t="str">
+      <c r="B3" s="57" t="str">
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="55">
-        <v>6</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>37</v>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:6">
-      <c r="A4" s="54" t="str">
+      <c r="A4" s="57" t="str">
         <f>项目!A4</f>
         <v>“缤纷童年”场景规划制作团体赛</v>
       </c>
-      <c r="B4" s="54" t="str">
+      <c r="B4" s="57" t="str">
         <f>项目!B4</f>
         <v>A2</v>
       </c>
-      <c r="C4" s="55">
-        <v>6</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>37</v>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6">
-      <c r="A5" s="54" t="str">
+      <c r="A5" s="57" t="str">
         <f>项目!A5</f>
         <v>“天戈”遥控直升机障碍赛</v>
       </c>
-      <c r="B5" s="54" t="str">
+      <c r="B5" s="57" t="str">
         <f>项目!B5</f>
         <v>B1</v>
       </c>
-      <c r="C5" s="55">
-        <v>6</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>37</v>
+      <c r="C5" s="58">
+        <v>5</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:6">
-      <c r="A6" s="54" t="str">
+      <c r="A6" s="57" t="str">
         <f>项目!A6</f>
         <v>环保时装秀</v>
       </c>
-      <c r="B6" s="54" t="str">
+      <c r="B6" s="57" t="str">
         <f>项目!B6</f>
         <v>C1</v>
       </c>
-      <c r="C6" s="55">
-        <v>6</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>37</v>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:6">
-      <c r="A7" s="54" t="str">
+      <c r="A7" s="57" t="str">
         <f>项目!A7</f>
         <v>环保创意制作</v>
       </c>
-      <c r="B7" s="54" t="str">
+      <c r="B7" s="57" t="str">
         <f>项目!B7</f>
         <v>C2</v>
       </c>
-      <c r="C7" s="55">
-        <v>6</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>37</v>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2433,6 +2375,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2443,12 +2386,12 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA3" sqref="AA3:AD7"/>
+      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2464,13 +2407,13 @@
     <col min="14" max="14" width="9.125" customWidth="1"/>
     <col min="15" max="15" width="9.625" customWidth="1"/>
     <col min="16" max="16" width="6.75" customWidth="1"/>
-    <col min="17" max="17" width="4.125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="48" customWidth="1"/>
     <col min="18" max="25" width="4.125" customWidth="1"/>
     <col min="26" max="32" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="17:17">
-      <c r="Q1" s="49"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" ht="24" spans="1:33">
       <c r="A2" s="25" t="s">
@@ -2480,97 +2423,97 @@
         <v>13</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="F2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="G2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="H2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="I2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="J2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="Q2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="R2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="S2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="T2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="U2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="V2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="W2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="X2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="Y2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="Z2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="AA2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="AB2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AC2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AD2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AE2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AF2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AE2" s="27" t="s">
+      <c r="AG2" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="AF2" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG2" s="27" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
@@ -2588,78 +2531,78 @@
       <c r="D3" s="24">
         <v>25</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="51">
         <v>2</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="I3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="J3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="M3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="24" t="s">
+      <c r="N3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="O3" s="34"/>
+      <c r="P3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="35">
         <f t="shared" ref="Q3:Q7" si="0">SUM(R3:Y3)</f>
         <v>84</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="34">
         <v>30</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="34">
         <v>6</v>
       </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33">
+      <c r="T3" s="34"/>
+      <c r="U3" s="34">
         <v>8</v>
       </c>
-      <c r="V3" s="33">
+      <c r="V3" s="34">
         <v>8</v>
       </c>
-      <c r="W3" s="33">
+      <c r="W3" s="34">
         <v>20</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33">
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34">
         <v>12</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="38" t="s">
+      <c r="AC3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="AB3" s="38" t="s">
+      <c r="AD3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
     </row>
     <row r="4" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A4" s="24" t="str">
@@ -2676,78 +2619,78 @@
       <c r="D4" s="24">
         <v>25</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="51">
         <v>2</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="I4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="J4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="M4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="24" t="s">
+      <c r="N4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="35">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="34">
         <v>25</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="34">
         <v>6</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33">
+      <c r="T4" s="34"/>
+      <c r="U4" s="34">
         <v>30</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V4" s="34">
         <v>8</v>
       </c>
-      <c r="W4" s="33">
+      <c r="W4" s="34">
         <v>15</v>
       </c>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33">
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34">
         <v>10</v>
       </c>
-      <c r="Z4" s="37" t="s">
+      <c r="Z4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB4" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AC4" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AD4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AC4" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD4" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
     </row>
     <row r="5" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A5" s="24" t="str">
@@ -2764,83 +2707,83 @@
       <c r="D5" s="24">
         <v>25</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="51">
         <v>3</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="I5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="30" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="35">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="34">
         <v>30</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="34">
         <v>6</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="34">
         <v>6</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="34">
         <v>8</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="34">
         <v>8</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="34">
         <v>20</v>
       </c>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34">
         <v>12</v>
       </c>
-      <c r="Z5" s="37" t="s">
+      <c r="Z5" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="38" t="s">
+      <c r="AC5" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="38" t="s">
+      <c r="AD5" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AC5" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD5" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
     </row>
     <row r="6" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A6" s="24" t="str">
@@ -2857,78 +2800,78 @@
       <c r="D6" s="24">
         <v>25</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="51">
         <v>2</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="I6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="M6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="24" t="s">
+      <c r="N6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="O6" s="34"/>
+      <c r="P6" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="35">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="34">
         <v>30</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="34">
         <v>6</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33">
+      <c r="T6" s="34"/>
+      <c r="U6" s="34">
         <v>8</v>
       </c>
-      <c r="V6" s="33">
+      <c r="V6" s="34">
         <v>8</v>
       </c>
-      <c r="W6" s="33">
+      <c r="W6" s="34">
         <v>20</v>
       </c>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34">
         <v>12</v>
       </c>
-      <c r="Z6" s="37" t="s">
+      <c r="Z6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" s="38" t="s">
+      <c r="AC6" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" s="38" t="s">
+      <c r="AD6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AC6" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
     </row>
     <row r="7" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
       <c r="A7" s="24" t="str">
@@ -2945,240 +2888,240 @@
       <c r="D7" s="24">
         <v>25</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="51">
         <v>2</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="I7" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="J7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="M7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="24" t="s">
+      <c r="N7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="O7" s="34"/>
+      <c r="P7" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="35">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="34">
         <v>30</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="34">
         <v>6</v>
       </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33">
+      <c r="T7" s="34"/>
+      <c r="U7" s="34">
         <v>8</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="34">
         <v>8</v>
       </c>
-      <c r="W7" s="33">
+      <c r="W7" s="34">
         <v>20</v>
       </c>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33">
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34">
         <v>12</v>
       </c>
-      <c r="Z7" s="37" t="s">
+      <c r="Z7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="AA7" s="38" t="s">
+      <c r="AC7" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="AB7" s="38" t="s">
+      <c r="AD7" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AC7" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD7" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
     </row>
     <row r="8" s="24" customFormat="1" ht="28" customHeight="1" spans="5:32">
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:32">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:32">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:32">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:32">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:2">
       <c r="A13" s="24"/>
@@ -3214,16 +3157,16 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3:N7"/>
+      <selection pane="bottomRight" activeCell="AB6" sqref="AB3:AB4 AB6:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="5.625" customWidth="1"/>
     <col min="3" max="3" width="3.875" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -3245,101 +3188,101 @@
         <v>13</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="M2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="O2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="P2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="31" t="s">
+      <c r="AG2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE2" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="31" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
-      <c r="A3" s="24" t="str">
+      <c r="A3" s="28" t="str">
         <f>项目!A3</f>
         <v>“七彩风车小屋”拼装彩绘个人赛</v>
       </c>
@@ -3347,97 +3290,93 @@
         <f>项目!B3</f>
         <v>A1</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="29">
         <v>30</v>
       </c>
       <c r="D3" s="24">
         <v>20</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="32" t="s">
+      <c r="N3" s="35">
+        <f t="shared" ref="N3:N7" si="0">SUM(O3:W3)</f>
+        <v>80</v>
+      </c>
+      <c r="O3" s="36">
+        <v>25</v>
+      </c>
+      <c r="P3" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>8</v>
+      </c>
+      <c r="R3" s="36">
+        <v>15</v>
+      </c>
+      <c r="S3" s="36">
+        <v>10</v>
+      </c>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36">
+        <v>5</v>
+      </c>
+      <c r="V3" s="36">
+        <v>6</v>
+      </c>
+      <c r="W3" s="36">
+        <v>5</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33" t="s">
+      <c r="AB3" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="34">
-        <f t="shared" ref="N3:N7" si="0">SUM(O3:W3)</f>
-        <v>87</v>
-      </c>
-      <c r="O3" s="35">
-        <v>25</v>
-      </c>
-      <c r="P3" s="35">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="35">
-        <v>8</v>
-      </c>
-      <c r="R3" s="35">
-        <v>15</v>
-      </c>
-      <c r="S3" s="35">
-        <v>17</v>
-      </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35">
-        <v>5</v>
-      </c>
-      <c r="V3" s="35">
-        <v>6</v>
-      </c>
-      <c r="W3" s="35">
-        <v>5</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" s="38" t="s">
+      <c r="AE3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AB3" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC3" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF3" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG3" s="44"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="47"/>
     </row>
     <row r="4" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
-      <c r="A4" s="24" t="str">
+      <c r="A4" s="28" t="str">
         <f>项目!A4</f>
         <v>“缤纷童年”场景规划制作团体赛</v>
       </c>
@@ -3445,97 +3384,93 @@
         <f>项目!B4</f>
         <v>A2</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="29">
         <v>30</v>
       </c>
       <c r="D4" s="24">
         <v>20</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="34">
+      <c r="N4" s="35">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="36">
         <v>25</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="36">
         <v>6</v>
       </c>
-      <c r="Q4" s="35">
-        <v>8</v>
-      </c>
-      <c r="R4" s="35">
+      <c r="Q4" s="36">
+        <v>20</v>
+      </c>
+      <c r="R4" s="36">
         <v>15</v>
       </c>
-      <c r="S4" s="35">
-        <v>17</v>
-      </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35">
+      <c r="S4" s="36">
         <v>5</v>
       </c>
-      <c r="V4" s="35">
+      <c r="T4" s="36"/>
+      <c r="U4" s="36">
+        <v>5</v>
+      </c>
+      <c r="V4" s="36">
         <v>6</v>
       </c>
-      <c r="W4" s="35">
+      <c r="W4" s="36">
         <v>5</v>
       </c>
-      <c r="X4" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y4" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z4" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA4" s="38" t="s">
+      <c r="X4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB4" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AB4" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC4" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD4" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE4" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF4" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG4" s="44"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="47"/>
     </row>
     <row r="5" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
-      <c r="A5" s="24" t="str">
+      <c r="A5" s="28" t="str">
         <f>项目!A5</f>
         <v>“天戈”遥控直升机障碍赛</v>
       </c>
@@ -3543,97 +3478,101 @@
         <f>项目!B5</f>
         <v>B1</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="29">
         <v>30</v>
       </c>
       <c r="D5" s="24">
         <v>20</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="N5" s="35">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="O5" s="36">
+        <v>20</v>
+      </c>
+      <c r="P5" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>8</v>
+      </c>
+      <c r="R5" s="36">
+        <v>8</v>
+      </c>
+      <c r="S5" s="36">
+        <v>18</v>
+      </c>
+      <c r="T5" s="36">
+        <v>18</v>
+      </c>
+      <c r="U5" s="36">
+        <v>5</v>
+      </c>
+      <c r="V5" s="36">
+        <v>6</v>
+      </c>
+      <c r="W5" s="36">
+        <v>5</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z5" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
+      <c r="AB5" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="AC5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="34">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="O5" s="35">
-        <v>25</v>
-      </c>
-      <c r="P5" s="35">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="35">
-        <v>8</v>
-      </c>
-      <c r="R5" s="35">
-        <v>15</v>
-      </c>
-      <c r="S5" s="35">
-        <v>17</v>
-      </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35">
-        <v>5</v>
-      </c>
-      <c r="V5" s="35">
-        <v>6</v>
-      </c>
-      <c r="W5" s="35">
-        <v>5</v>
-      </c>
-      <c r="X5" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z5" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA5" s="38" t="s">
+      <c r="AE5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AB5" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC5" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD5" s="40" t="s">
+      <c r="AF5" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="AE5" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF5" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG5" s="44"/>
+      <c r="AG5" s="47"/>
     </row>
     <row r="6" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
-      <c r="A6" s="24" t="str">
+      <c r="A6" s="28" t="str">
         <f>项目!A6</f>
         <v>环保时装秀</v>
       </c>
@@ -3641,97 +3580,93 @@
         <f>项目!B6</f>
         <v>C1</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="29">
         <v>30</v>
       </c>
       <c r="D6" s="24">
         <v>20</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="G6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="32" t="s">
+      <c r="N6" s="35">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O6" s="36">
+        <v>25</v>
+      </c>
+      <c r="P6" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>8</v>
+      </c>
+      <c r="R6" s="36">
+        <v>15</v>
+      </c>
+      <c r="S6" s="36">
+        <v>10</v>
+      </c>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36">
+        <v>5</v>
+      </c>
+      <c r="V6" s="36">
+        <v>6</v>
+      </c>
+      <c r="W6" s="36">
+        <v>5</v>
+      </c>
+      <c r="X6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33" t="s">
+      <c r="AB6" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="34">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="O6" s="35">
-        <v>25</v>
-      </c>
-      <c r="P6" s="35">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="35">
-        <v>8</v>
-      </c>
-      <c r="R6" s="35">
-        <v>15</v>
-      </c>
-      <c r="S6" s="35">
-        <v>17</v>
-      </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35">
-        <v>5</v>
-      </c>
-      <c r="V6" s="35">
-        <v>6</v>
-      </c>
-      <c r="W6" s="35">
-        <v>5</v>
-      </c>
-      <c r="X6" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z6" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA6" s="38" t="s">
+      <c r="AE6" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AB6" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD6" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE6" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF6" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG6" s="44"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="47"/>
     </row>
     <row r="7" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
-      <c r="A7" s="24" t="str">
+      <c r="A7" s="28" t="str">
         <f>项目!A7</f>
         <v>环保创意制作</v>
       </c>
@@ -3739,263 +3674,259 @@
         <f>项目!B7</f>
         <v>C2</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="29">
         <v>30</v>
       </c>
       <c r="D7" s="24">
         <v>20</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="G7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="32" t="s">
+      <c r="N7" s="35">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O7" s="36">
+        <v>25</v>
+      </c>
+      <c r="P7" s="36">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>8</v>
+      </c>
+      <c r="R7" s="36">
+        <v>15</v>
+      </c>
+      <c r="S7" s="36">
+        <v>10</v>
+      </c>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36">
+        <v>5</v>
+      </c>
+      <c r="V7" s="36">
+        <v>6</v>
+      </c>
+      <c r="W7" s="36">
+        <v>5</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA7" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
+      <c r="AB7" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="34">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="O7" s="35">
-        <v>25</v>
-      </c>
-      <c r="P7" s="35">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="35">
-        <v>8</v>
-      </c>
-      <c r="R7" s="35">
-        <v>15</v>
-      </c>
-      <c r="S7" s="35">
-        <v>17</v>
-      </c>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35">
-        <v>5</v>
-      </c>
-      <c r="V7" s="35">
-        <v>6</v>
-      </c>
-      <c r="W7" s="35">
-        <v>5</v>
-      </c>
-      <c r="X7" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y7" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z7" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA7" s="38" t="s">
+      <c r="AE7" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AB7" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC7" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD7" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE7" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF7" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG7" s="44"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="47"/>
     </row>
     <row r="8" s="24" customFormat="1" ht="28" customHeight="1" spans="3:33">
-      <c r="C8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="44"/>
+      <c r="C8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="47"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:33">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="29"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="44"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="47"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:33">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="24"/>
-      <c r="E10" s="29"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="44"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="47"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:33">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="44"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="47"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:33">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="44"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="47"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:2">
       <c r="A13" s="24"/>
@@ -4041,18 +3972,18 @@
   <sheetData>
     <row r="1" ht="230" customHeight="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" ht="407" customHeight="1" spans="1:7">
       <c r="A2" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2" s="22"/>
     </row>
     <row r="3" ht="33" spans="1:1">
       <c r="A3" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4078,22 +4009,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +4067,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4147,7 +4078,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -4161,7 +4092,7 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:24">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -4170,84 +4101,84 @@
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:24">
       <c r="A3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -4258,7 +4189,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
@@ -4269,7 +4200,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="X3" s="8"/>
     </row>

--- a/配置文件/2016昆山实践操作赛.xlsx
+++ b/配置文件/2016昆山实践操作赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="2"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -627,15 +627,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="179" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="179" formatCode="#0&quot;圈&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
+    <numFmt numFmtId="180" formatCode="#0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="181" formatCode="#0&quot;得分&quot;\ 00&quot;分&quot;00&quot;秒&quot;00"/>
   </numFmts>
   <fonts count="37">
@@ -746,8 +746,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -761,14 +801,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -782,38 +815,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -827,40 +829,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -875,8 +845,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -885,6 +863,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -941,13 +941,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,49 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,67 +1103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,17 +1212,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,35 +1251,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,6 +1294,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1317,145 +1317,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1582,7 +1582,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -1593,10 +1593,10 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2226,7 +2226,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3156,12 +3156,12 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB6" sqref="AB3:AB4 AB6:AB7"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3338,14 +3338,14 @@
         <v>15</v>
       </c>
       <c r="S3" s="36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T3" s="36"/>
       <c r="U3" s="36">
         <v>5</v>
       </c>
       <c r="V3" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W3" s="36">
         <v>5</v>
@@ -3417,19 +3417,19 @@
       </c>
       <c r="N4" s="35">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O4" s="36">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P4" s="36">
         <v>6</v>
       </c>
       <c r="Q4" s="36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R4" s="36">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S4" s="36">
         <v>5</v>
@@ -3439,7 +3439,7 @@
         <v>5</v>
       </c>
       <c r="V4" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W4" s="36">
         <v>5</v>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="N5" s="35">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O5" s="36">
         <v>20</v>
@@ -3525,19 +3525,19 @@
         <v>8</v>
       </c>
       <c r="R5" s="36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S5" s="36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T5" s="36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U5" s="36">
         <v>5</v>
       </c>
       <c r="V5" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W5" s="36">
         <v>5</v>
@@ -3628,14 +3628,14 @@
         <v>15</v>
       </c>
       <c r="S6" s="36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T6" s="36"/>
       <c r="U6" s="36">
         <v>5</v>
       </c>
       <c r="V6" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W6" s="36">
         <v>5</v>
@@ -3722,14 +3722,14 @@
         <v>15</v>
       </c>
       <c r="S7" s="36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" s="36"/>
       <c r="U7" s="36">
         <v>5</v>
       </c>
       <c r="V7" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W7" s="36">
         <v>5</v>

--- a/配置文件/2016昆山实践操作赛.xlsx
+++ b/配置文件/2016昆山实践操作赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8550" activeTab="4"/>
+    <workbookView windowWidth="21510" windowHeight="10530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>名称</t>
   </si>
@@ -383,10 +383,16 @@
     <t>降序</t>
   </si>
   <si>
-    <t>一等奖 0.1 二等奖 0.2 三等奖 0.3</t>
+    <t>一等奖 0.15 二等奖 0.25 三等奖 0.40</t>
+  </si>
+  <si>
+    <t>一等奖 0.2 二等奖 0.3 三等奖 0.5</t>
   </si>
   <si>
     <t>比最高轮_得分大_用时短</t>
+  </si>
+  <si>
+    <t>一等奖 0.4 二等奖 0.6</t>
   </si>
   <si>
     <t>标题行高</t>
@@ -627,10 +633,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
@@ -746,9 +752,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -762,24 +775,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -801,7 +814,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -836,17 +857,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -854,7 +867,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -869,15 +882,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -953,6 +959,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -960,12 +984,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,19 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,12 +1031,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1038,12 +1038,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,19 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,13 +1079,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,6 +1218,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1223,15 +1262,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,26 +1290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1295,17 +1305,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,10 +1323,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1329,133 +1335,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2226,8 +2232,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2300,7 +2306,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:6">
@@ -2316,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>33</v>
@@ -2342,7 +2348,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:6">
@@ -2362,15 +2368,15 @@
         <v>33</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7">
       <formula1>"降序,升序"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2423,97 +2429,97 @@
         <v>13</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X2" s="32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB2" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE2" s="27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG2" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:32">
@@ -2535,32 +2541,32 @@
         <v>2</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O3" s="34"/>
       <c r="P3" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="35">
         <f t="shared" ref="Q3:Q7" si="0">SUM(R3:Y3)</f>
@@ -2587,19 +2593,19 @@
         <v>12</v>
       </c>
       <c r="Z3" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA3" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC3" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD3" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE3" s="42"/>
       <c r="AF3" s="42"/>
@@ -2623,32 +2629,32 @@
         <v>2</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O4" s="34"/>
       <c r="P4" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="35">
         <f t="shared" si="0"/>
@@ -2675,19 +2681,19 @@
         <v>10</v>
       </c>
       <c r="Z4" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA4" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB4" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC4" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD4" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE4" s="42"/>
       <c r="AF4" s="42"/>
@@ -2711,16 +2717,16 @@
         <v>3</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>14</v>
@@ -2729,17 +2735,17 @@
         <v>16</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O5" s="34"/>
       <c r="P5" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="35">
         <f t="shared" si="0"/>
@@ -2768,19 +2774,19 @@
         <v>12</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB5" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC5" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD5" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE5" s="42"/>
       <c r="AF5" s="42"/>
@@ -2804,32 +2810,32 @@
         <v>2</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O6" s="34"/>
       <c r="P6" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="35">
         <f t="shared" si="0"/>
@@ -2856,19 +2862,19 @@
         <v>12</v>
       </c>
       <c r="Z6" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA6" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB6" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC6" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD6" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE6" s="42"/>
       <c r="AF6" s="42"/>
@@ -2892,32 +2898,32 @@
         <v>2</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O7" s="34"/>
       <c r="P7" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="35">
         <f t="shared" si="0"/>
@@ -2944,19 +2950,19 @@
         <v>12</v>
       </c>
       <c r="Z7" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA7" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB7" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC7" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD7" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE7" s="42"/>
       <c r="AF7" s="42"/>
@@ -3156,7 +3162,7 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3188,97 +3194,97 @@
         <v>13</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB2" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE2" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG2" s="32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="24" customFormat="1" ht="28" customHeight="1" spans="1:33">
@@ -3297,29 +3303,29 @@
         <v>20</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" s="35">
         <f t="shared" ref="N3:N7" si="0">SUM(O3:W3)</f>
@@ -3351,26 +3357,26 @@
         <v>5</v>
       </c>
       <c r="X3" s="37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y3" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z3" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA3" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB3" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC3" s="41"/>
       <c r="AD3" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE3" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF3" s="28"/>
       <c r="AG3" s="47"/>
@@ -3391,29 +3397,29 @@
         <v>20</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N4" s="35">
         <f t="shared" si="0"/>
@@ -3445,26 +3451,26 @@
         <v>5</v>
       </c>
       <c r="X4" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA4" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB4" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC4" s="41"/>
       <c r="AD4" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE4" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF4" s="28"/>
       <c r="AG4" s="47"/>
@@ -3485,31 +3491,31 @@
         <v>20</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" s="35">
         <f t="shared" si="0"/>
@@ -3543,31 +3549,31 @@
         <v>5</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y5" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC5" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD5" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE5" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="AD5" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE5" s="42" t="s">
-        <v>90</v>
-      </c>
       <c r="AF5" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG5" s="47"/>
     </row>
@@ -3587,29 +3593,29 @@
         <v>20</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" s="34"/>
       <c r="K6" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" s="35">
         <f t="shared" si="0"/>
@@ -3641,26 +3647,26 @@
         <v>5</v>
       </c>
       <c r="X6" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y6" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z6" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA6" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB6" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC6" s="41"/>
       <c r="AD6" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE6" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF6" s="28"/>
       <c r="AG6" s="47"/>
@@ -3681,29 +3687,29 @@
         <v>20</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N7" s="35">
         <f t="shared" si="0"/>
@@ -3735,26 +3741,26 @@
         <v>5</v>
       </c>
       <c r="X7" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z7" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA7" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB7" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC7" s="41"/>
       <c r="AD7" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE7" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF7" s="28"/>
       <c r="AG7" s="47"/>
@@ -3972,18 +3978,18 @@
   <sheetData>
     <row r="1" ht="230" customHeight="1" spans="1:1">
       <c r="A1" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" ht="407" customHeight="1" spans="1:7">
       <c r="A2" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="22"/>
     </row>
     <row r="3" ht="33" spans="1:1">
       <c r="A3" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4009,22 +4015,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4067,7 +4073,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4078,7 +4084,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -4092,7 +4098,7 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:24">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -4101,84 +4107,84 @@
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="P2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="Q2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="R2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="U2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="V2" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:24">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -4189,7 +4195,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
@@ -4200,7 +4206,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X3" s="8"/>
     </row>

--- a/配置文件/2016昆山实践操作赛.xlsx
+++ b/配置文件/2016昆山实践操作赛.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10530" activeTab="2"/>
+    <workbookView windowWidth="20400" windowHeight="8550" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="全局" sheetId="1" r:id="rId1"/>
@@ -570,14 +570,14 @@
     <t>[成绩排序]</t>
   </si>
   <si>
-    <t>2016年昆山市
-中小学生车辆模型比赛</t>
+    <t>第十二届昆山市
+中小学科技实践操作赛</t>
   </si>
   <si>
     <t>成绩公示</t>
   </si>
   <si>
-    <t>2016.4 玉峰实验学校</t>
+    <t>2016.5 开发区实验学校</t>
   </si>
   <si>
     <t>先设置好 分组 再设置 编号</t>
@@ -634,9 +634,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#0&quot;分&quot;\ 0&quot;分&quot;00&quot;秒&quot;00"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="00&quot;圈&quot;00&quot;分&quot;00&quot;秒&quot;00"/>
@@ -684,6 +684,7 @@
     </font>
     <font>
       <sz val="48"/>
+      <color rgb="FF000000"/>
       <name val="华文新魏"/>
       <charset val="134"/>
     </font>
@@ -699,6 +700,7 @@
     </font>
     <font>
       <sz val="26"/>
+      <color rgb="FF000000"/>
       <name val="华文新魏"/>
       <charset val="134"/>
     </font>
@@ -752,9 +754,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -767,16 +768,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -791,16 +806,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -813,45 +821,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -865,9 +837,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -883,6 +862,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -891,6 +886,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -947,7 +949,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,13 +1003,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,13 +1063,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,127 +1117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,15 +1220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1242,30 +1235,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1277,6 +1246,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1305,6 +1292,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1323,10 +1325,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1335,133 +1337,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1527,7 +1529,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1536,7 +1538,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2232,7 +2234,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2373,10 +2375,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E7">
       <formula1>"降序,升序"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D7"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3967,8 +3969,8 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
